--- a/Data/Staphylinidae_2.18.2022.xlsx
+++ b/Data/Staphylinidae_2.18.2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmanni12\Documents\GitHub\trapping_calibration\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24AD2A0C-4EE2-4FAB-B73E-4E8F2133E5C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F3E1D9-277B-4B5A-AE5C-158A4E0FEFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0186DAAE-1448-4477-9DEE-7E0BC48827CB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Dix</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Xantholinus</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>*couldn't remove</t>
   </si>
 </sst>
 </file>
@@ -174,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +191,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98D64EB-7298-42F3-84D1-0320CD1D1FCC}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -830,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -848,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -864,6 +876,46 @@
       </c>
       <c r="J19" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
